--- a/Forex_Credit_Equity/excel/Forex_Quizz.xlsx
+++ b/Forex_Credit_Equity/excel/Forex_Quizz.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="72" windowWidth="10836" windowHeight="5520" activeTab="4"/>
+    <workbookView xWindow="576" yWindow="72" windowWidth="10836" windowHeight="5520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Quizz 7" sheetId="1" r:id="rId1"/>
-    <sheet name="Quizz 8" sheetId="2" r:id="rId2"/>
-    <sheet name="Quizz 9" sheetId="3" r:id="rId3"/>
-    <sheet name="Quizz 10" sheetId="4" r:id="rId4"/>
-    <sheet name="Quizz 11" sheetId="5" r:id="rId5"/>
+    <sheet name="Quizz 1 &amp; 2" sheetId="6" r:id="rId1"/>
+    <sheet name="Quizz 4" sheetId="9" r:id="rId2"/>
+    <sheet name="Quizz 7" sheetId="1" r:id="rId3"/>
+    <sheet name="Quizz 8" sheetId="2" r:id="rId4"/>
+    <sheet name="Quizz 9" sheetId="3" r:id="rId5"/>
+    <sheet name="Quizz 10" sheetId="4" r:id="rId6"/>
+    <sheet name="Quizz 10-bis" sheetId="8" r:id="rId7"/>
+    <sheet name="Quizz 11" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>NEUR</t>
   </si>
@@ -60,18 +63,82 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>USDCHF</t>
+  </si>
+  <si>
+    <t>USDCNY</t>
+  </si>
+  <si>
+    <t>EURGBP</t>
+  </si>
+  <si>
+    <t>EURCHF</t>
+  </si>
+  <si>
+    <t>EURJPY</t>
+  </si>
+  <si>
+    <t>EURCNY</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Notional EUR</t>
+  </si>
+  <si>
+    <t>rUSD</t>
+  </si>
+  <si>
+    <t>Notional USD</t>
+  </si>
+  <si>
+    <t>rEUR</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>PNL USD</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>PNL EUR</t>
+  </si>
+  <si>
+    <t>DFEUR</t>
+  </si>
+  <si>
+    <t>F Cont</t>
+  </si>
+  <si>
+    <t>DFUSD</t>
+  </si>
+  <si>
+    <t>F Act</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;????\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;????\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +168,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,29 +197,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -430,10 +591,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:J21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.0879000000000001</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1.1162000000000001</v>
+      </c>
+      <c r="E3" s="12">
+        <f>D3-C3</f>
+        <v>2.8299999999999992E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.4829000000000001</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.4141999999999999</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4:E13" si="0">D4-C4</f>
+        <v>-6.8700000000000205E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>1.8600000000000061E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>119.76</v>
+      </c>
+      <c r="D6" s="11">
+        <v>112.96</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.8000000000000114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11">
+        <v>6.1395999999999997</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6.5125000000000002</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.37290000000000045</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <f>C3</f>
+        <v>1.0879000000000001</v>
+      </c>
+      <c r="D9" s="15">
+        <f>D3</f>
+        <v>1.1162000000000001</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8299999999999992E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15">
+        <f>C3/C4</f>
+        <v>0.73363004922786434</v>
+      </c>
+      <c r="D10" s="15">
+        <f>D3/D4</f>
+        <v>0.78928015839343812</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>5.565010916557378E-2</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:D13" si="1">$C$3*C5</f>
+        <v>1.04231699</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0625519300000001</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>2.0234940000000146E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="1"/>
+        <v>130.28690400000002</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="1"/>
+        <v>122.889184</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>-7.3977200000000209</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="1"/>
+        <v>6.67927084</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="1"/>
+        <v>7.0849487500000006</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>0.40567791000000053</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:E7">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E13">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="110" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.1162000000000001</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1.1282875965111845</v>
+      </c>
+      <c r="E2" s="20">
+        <f>D2-C2</f>
+        <v>1.2087596511184406E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="24">
+        <f>-C6*C4+C6*C3+C6*(C2/C2-1)</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="24">
+        <f>-C6*C4+C6*C3*C2/D2+C6*(C2/D2-1)</f>
+        <v>-5.3555049817077816E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -446,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.08785</v>
+        <v>1.1162000000000001</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -456,7 +921,7 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="26">
         <v>-50000000</v>
       </c>
     </row>
@@ -464,17 +929,17 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
-        <v>54400000</v>
+      <c r="C5" s="26">
+        <v>55815000</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="24">
         <f>C4+C5/C2</f>
-        <v>6894.3328583911061</v>
+        <v>4479.483963444829</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -500,15 +965,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -522,35 +988,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.08785</v>
+        <v>1.1162000000000001</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1.09785</v>
+      <c r="C3" s="27">
+        <f>C2+0.01</f>
+        <v>1.1262000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
-        <v>54400000</v>
+      <c r="C5" s="26">
+        <f>'Quizz 7'!C5</f>
+        <v>55815000</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="C6" s="9"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
-        <f>C5/C3-C5/C2</f>
-        <v>-455498.42267029732</v>
+      <c r="C7" s="24">
+        <f>C5/C2-C5/C3</f>
+        <v>444010.65071891248</v>
       </c>
     </row>
   </sheetData>
@@ -558,12 +1026,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-55815000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.1162000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <f>'Quizz 8'!C5</f>
+        <v>55815000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <f>(C8/(1+C5)/C4+C9)*(1+C6-C7)</f>
+        <v>49374642.526389495</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="24">
+        <f>C11/(1+C6-C7)-C8/(1+C5)/C4</f>
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -571,182 +1138,240 @@
     <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:4">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
-        <v>-54400000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1.0987499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="3" t="s">
+      <c r="C2" s="6">
+        <v>-55815000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f>'Quizz 9'!C11</f>
+        <v>49374642.526389495</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="C8" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <f>(-C2/(1+C5)/C4+C8)*(1+C6-C7)</f>
-        <v>49210725.784917824</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10">
-        <f>C2/(1+C5)/C4+C10/(1+C6-C7)</f>
-        <v>50000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C10" s="24">
+        <f>C2/(1+C6)</f>
+        <v>-55366531.098105349</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="24">
+        <f>C3/(1+C7-C8)</f>
+        <v>49652697.633135051</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:7">
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6">
-        <v>-54400000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>1.1162000000000001</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="19">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>49210725.784917824</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="2:3">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="19">
+        <f>-F2*C2</f>
+        <v>-111620000.00000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="28">
+        <f>F2*C9*C2+F3*C10</f>
+        <v>1527295.6457081288</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:3">
+        <v>28</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="28">
+        <f>F6/C2</f>
+        <v>1368299.2704785243</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22">
+        <f>EXP(-(C4-C5)*C6)</f>
+        <v>1.0056157093103564</v>
+      </c>
+      <c r="D9" s="23">
+        <f>1/(1+C4-C5)</f>
+        <v>1.0056315366049879</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="23">
+        <f>C2/C10*C9</f>
+        <v>1.1315971697892433</v>
+      </c>
+      <c r="G9" s="23">
+        <f>F9-C2</f>
+        <v>1.5397169789243215E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8">
-        <f>C2/(1+C6)</f>
-        <v>-54156296.665007472</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8">
-        <f>C3/(1+C7-C8)</f>
-        <v>49339007.203647308</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C10" s="22">
+        <f>EXP(-C3*C6)</f>
+        <v>0.99193271660557114</v>
+      </c>
+      <c r="D10" s="23">
+        <f>1/(1+C3)</f>
+        <v>0.99196508282908447</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="23">
+        <f>C2/D10*D9</f>
+        <v>1.1315780571198713</v>
+      </c>
+      <c r="G10" s="23">
+        <f>F10-C2</f>
+        <v>1.5378057119871169E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -756,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>119.76</v>
+        <v>112.64</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -764,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>1.1000000000000001E-3</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -772,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>4.4999999999999997E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -780,17 +1405,26 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>3.8999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7">
-        <f>C2*(1+C3-C5)/(1+C4)</f>
-        <v>118.88966849178698</v>
-      </c>
+      <c r="C7" s="25">
+        <f>(1+C3-C5)/(1+C4)*C2</f>
+        <v>111.01984326951691</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="25">
+        <f>C7-C2</f>
+        <v>-1.6201567304830888</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
